--- a/niku/data/xls/seed.xlsx
+++ b/niku/data/xls/seed.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>open</t>
     <phoneticPr fontId="1"/>
@@ -49,19 +49,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B/S/Y</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -81,6 +69,33 @@
   </si>
   <si>
     <t>12345どれか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15-50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10-100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10-100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆</t>
+    <rPh sb="0" eb="1">
+      <t>ギャク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -158,8 +173,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -205,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="63">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -225,6 +264,18 @@
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -245,6 +296,18 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -573,246 +636,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:M49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="3:13">
-      <c r="H1" s="3" t="s">
+    <row r="1" spans="1:14">
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="3:13">
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>40</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="3:13">
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3">
+        <v>123</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="str">
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="str">
         <f>"20-39"</f>
         <v>20-39</v>
       </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13">
-      <c r="C4" s="3" t="s">
+      <c r="N3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>"-19 - 19"</f>
         <v>-19 - 19</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13">
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="str">
+        <f>C5&amp;": ("&amp;E5&amp;","&amp;F5&amp;","&amp;G5&amp;"),"</f>
+        <v>1: (3,1,1),</v>
+      </c>
+      <c r="B5" t="str">
+        <f>E5&amp;F5&amp;G5&amp;":"&amp;C5&amp;","</f>
+        <v>311:1,</v>
+      </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>IF(D5=G5,2,IF(D5&gt;G5,1,3))</f>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="M5" t="str">
         <f>"-20 - -39"</f>
         <v>-20 - -39</v>
       </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13">
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="str">
+        <f t="shared" ref="A6:A49" si="0">C6&amp;": ("&amp;E6&amp;","&amp;F6&amp;","&amp;G6&amp;"),"</f>
+        <v>2: (3,1,2),</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ref="B6:B49" si="1">E6&amp;F6&amp;G6&amp;":"&amp;C6&amp;","</f>
+        <v>312:2,</v>
+      </c>
       <c r="C6">
-        <v>0</v>
+        <f>C5+1</f>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H49" si="2">IF(D6=G6,2,IF(D6&gt;G6,1,3))</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>40</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>3: (3,1,3),</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>313:3,</v>
+      </c>
       <c r="C7">
-        <v>0</v>
+        <f t="shared" ref="C7:C49" si="3">C6+1</f>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>4: (3,1,4),</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>314:4,</v>
+      </c>
       <c r="C8">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>5: (3,1,5),</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>315:5,</v>
+      </c>
       <c r="C9">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>6: (3,2,1),</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>321:6,</v>
+      </c>
       <c r="C10">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>7: (3,2,2),</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>322:7,</v>
+      </c>
       <c r="C11">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="3:13">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>8: (3,2,3),</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>323:8,</v>
+      </c>
       <c r="C12">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>9: (3,2,4),</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>324:9,</v>
+      </c>
       <c r="C13">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>10: (3,2,5),</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>325:10,</v>
+      </c>
       <c r="C14">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>11: (3,3,1),</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>331:11,</v>
+      </c>
       <c r="C15">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -821,12 +1070,28 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>12: (3,3,2),</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>332:12,</v>
+      </c>
       <c r="C16">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -835,12 +1100,28 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>13: (3,3,3),</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>333:13,</v>
+      </c>
       <c r="C17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -851,10 +1132,26 @@
       <c r="F17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:6">
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>14: (3,3,4),</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>334:14,</v>
+      </c>
       <c r="C18">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -863,12 +1160,28 @@
         <v>3</v>
       </c>
       <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>15: (3,3,5),</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>335:15,</v>
+      </c>
       <c r="C19">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -877,427 +1190,914 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>16: (4,1,1),</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>411:16,</v>
+      </c>
       <c r="C20">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="3:6">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>17: (4,1,2),</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>412:17,</v>
+      </c>
       <c r="C21">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>18: (4,1,3),</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>413:18,</v>
+      </c>
       <c r="C22">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>19: (4,1,4),</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>414:19,</v>
+      </c>
       <c r="C23">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>20: (4,1,5),</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>415:20,</v>
+      </c>
       <c r="C24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>21: (4,2,1),</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>421:21,</v>
+      </c>
       <c r="C25">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>22: (4,2,2),</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>422:22,</v>
+      </c>
       <c r="C26">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="3:6">
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>23: (4,2,3),</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>423:23,</v>
+      </c>
       <c r="C27">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>24: (4,2,4),</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>424:24,</v>
+      </c>
       <c r="C28">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>25: (4,2,5),</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>425:25,</v>
+      </c>
       <c r="C29">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>26: (4,3,1),</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>431:26,</v>
+      </c>
       <c r="C30">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>27: (4,3,2),</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>432:27,</v>
+      </c>
       <c r="C31">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>28: (4,3,3),</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>433:28,</v>
+      </c>
       <c r="C32">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="3:6">
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>29: (4,3,4),</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>434:29,</v>
+      </c>
       <c r="C33">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>30: (4,3,5),</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>435:30,</v>
+      </c>
       <c r="C34">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>31: (5,1,1),</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>511:31,</v>
+      </c>
       <c r="C35">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="3:6">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>32: (5,1,2),</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>512:32,</v>
+      </c>
       <c r="C36">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>33: (5,1,3),</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v>513:33,</v>
+      </c>
       <c r="C37">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>34: (5,1,4),</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>514:34,</v>
+      </c>
       <c r="C38">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>35: (5,1,5),</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="1"/>
+        <v>515:35,</v>
+      </c>
       <c r="C39">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>36: (5,2,1),</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="1"/>
+        <v>521:36,</v>
+      </c>
       <c r="C40">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>37: (5,2,2),</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="1"/>
+        <v>522:37,</v>
+      </c>
       <c r="C41">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="3:6">
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>38: (5,2,3),</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="1"/>
+        <v>523:38,</v>
+      </c>
       <c r="C42">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>39: (5,2,4),</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="1"/>
+        <v>524:39,</v>
+      </c>
       <c r="C43">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>40: (5,2,5),</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="1"/>
+        <v>525:40,</v>
+      </c>
       <c r="C44">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>41: (5,3,1),</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="1"/>
+        <v>531:41,</v>
+      </c>
       <c r="C45">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>42: (5,3,2),</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="1"/>
+        <v>532:42,</v>
+      </c>
       <c r="C46">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>42</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>43: (5,3,3),</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="1"/>
+        <v>533:43,</v>
+      </c>
       <c r="C47">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>43</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="3:6">
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>44: (5,3,4),</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="1"/>
+        <v>534:44,</v>
+      </c>
       <c r="C48">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>45: (5,3,5),</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="1"/>
+        <v>535:45,</v>
+      </c>
       <c r="C49">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
